--- a/Proj2Chart.xlsx
+++ b/Proj2Chart.xlsx
@@ -9,11 +9,49 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16260" xr2:uid="{EE0084CB-2301-F646-A4BC-2CB4F880BDD3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{EE0084CB-2301-F646-A4BC-2CB4F880BDD3}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">工作表1!$A$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">工作表1!$A$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">工作表1!$A$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">工作表1!$A$5</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">工作表1!$A$6</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">工作表1!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">工作表1!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">工作表1!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">工作表1!$B$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">工作表1!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">工作表1!$A$3</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">工作表1!$A$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">工作表1!$A$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">工作表1!$A$5</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">工作表1!$A$6</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">工作表1!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">工作表1!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">工作表1!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">工作表1!$B$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">工作表1!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">工作表1!$A$3</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">工作表1!$A$4</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">工作表1!$A$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">工作表1!$A$6</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">工作表1!$A$6</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">工作表1!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">工作表1!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">工作表1!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">工作表1!$B$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">工作表1!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">工作表1!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">工作表1!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">工作表1!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">工作表1!$B$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">工作表1!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">工作表1!$A$3</definedName>
+  </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,22 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>coarse+dynamic</t>
-  </si>
-  <si>
-    <t>fine+static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fine+dynamic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coarse+static</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <r>
       <t>fine</t>
@@ -94,12 +117,32 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>如果每次計算量差不多static比較快 但要是前面1*1後面2000*2000才會dynamic比較快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coarse + static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coarse + dynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine + static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine + dynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,21 +177,48 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -157,17 +227,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -185,6 +261,1325 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>coarse + static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85A6-A74F-B4FD-FFBA44CF135D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>coarse + dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85A6-A74F-B4FD-FFBA44CF135D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine + static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-85A6-A74F-B4FD-FFBA44CF135D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine + dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-85A6-A74F-B4FD-FFBA44CF135D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="774034127"/>
+        <c:axId val="774035823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="774034127"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="18"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-Hant"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-Hant" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-Hant"/>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-Hant" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-Hant"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774035823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="774035823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" b="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>MegaBodies Compared Per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774034127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC59A8FB-D7C7-8B43-835E-CD0CC3A7D9B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,118 +1881,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B82FC45-0831-DD43-B598-961796FD525E}">
   <dimension ref="A2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="B2" s="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>8</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
         <v>12.07</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>18.11</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>32.409999999999997</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>49.92</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>65.03</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
         <v>17.149999999999999</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>21.41</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>34.799999999999997</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>43.78</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>54.65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
         <v>12.71</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>10.050000000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>9.2200000000000006</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>7.16</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>5.01</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
         <v>12.03</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>5.85</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>4.45</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>3.88</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>2.87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>